--- a/data_processed/20250815/BTCUSDVOLSURFACE_REGULARIZED_20250815.xlsx
+++ b/data_processed/20250815/BTCUSDVOLSURFACE_REGULARIZED_20250815.xlsx
@@ -723,7 +723,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -752,7 +752,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,CS,BF</t>
         </is>
       </c>
     </row>
@@ -868,7 +868,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -6742,7 +6742,7 @@
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,CS,BF</t>
         </is>
       </c>
     </row>
@@ -6800,7 +6800,7 @@
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -34953,7 +34953,7 @@
       </c>
       <c r="G1364" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -35040,7 +35040,7 @@
       </c>
       <c r="G1367" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -35069,7 +35069,7 @@
       </c>
       <c r="G1368" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -35127,7 +35127,7 @@
       </c>
       <c r="G1370" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -35330,7 +35330,7 @@
       </c>
       <c r="G1377" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -36245,7 +36245,7 @@
       </c>
       <c r="G1412" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -38156,7 +38156,7 @@
       </c>
       <c r="G1483" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -38214,7 +38214,7 @@
       </c>
       <c r="G1485" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -39245,7 +39245,7 @@
       </c>
       <c r="G1524" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -40226,7 +40226,7 @@
       </c>
       <c r="G1561" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>

--- a/data_processed/20250815/BTCUSDVOLSURFACE_REGULARIZED_20250815.xlsx
+++ b/data_processed/20250815/BTCUSDVOLSURFACE_REGULARIZED_20250815.xlsx
@@ -520,7 +520,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -694,7 +694,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -752,7 +752,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>CA,CS,BF</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
@@ -6348,7 +6348,7 @@
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -6684,7 +6684,7 @@
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -6742,7 +6742,7 @@
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>CA,CS,BF</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
@@ -6771,7 +6771,7 @@
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -6829,7 +6829,7 @@
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -6887,7 +6887,7 @@
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -13134,7 +13134,7 @@
       </c>
       <c r="G497" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -18708,7 +18708,7 @@
       </c>
       <c r="G719" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -34458,7 +34458,7 @@
       </c>
       <c r="G1345" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -35011,7 +35011,7 @@
       </c>
       <c r="G1366" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -35098,7 +35098,7 @@
       </c>
       <c r="G1369" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -36100,7 +36100,7 @@
       </c>
       <c r="G1407" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -36129,7 +36129,7 @@
       </c>
       <c r="G1408" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -36158,7 +36158,7 @@
       </c>
       <c r="G1409" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -36216,7 +36216,7 @@
       </c>
       <c r="G1411" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -36274,7 +36274,7 @@
       </c>
       <c r="G1413" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -36353,7 +36353,7 @@
       </c>
       <c r="G1416" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -36931,7 +36931,7 @@
       </c>
       <c r="G1438" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -36960,7 +36960,7 @@
       </c>
       <c r="G1439" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -36989,7 +36989,7 @@
       </c>
       <c r="G1440" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -37018,7 +37018,7 @@
       </c>
       <c r="G1441" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -37047,7 +37047,7 @@
       </c>
       <c r="G1442" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -37105,7 +37105,7 @@
       </c>
       <c r="G1444" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -37279,7 +37279,7 @@
       </c>
       <c r="G1450" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -37420,7 +37420,7 @@
       </c>
       <c r="G1455" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -38185,7 +38185,7 @@
       </c>
       <c r="G1484" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -38355,7 +38355,7 @@
       </c>
       <c r="G1490" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -38384,7 +38384,7 @@
       </c>
       <c r="G1491" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -39100,7 +39100,7 @@
       </c>
       <c r="G1519" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -39158,7 +39158,7 @@
       </c>
       <c r="G1521" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -39187,7 +39187,7 @@
       </c>
       <c r="G1522" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -39274,7 +39274,7 @@
       </c>
       <c r="G1525" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -40139,7 +40139,7 @@
       </c>
       <c r="G1558" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -40255,7 +40255,7 @@
       </c>
       <c r="G1562" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -41381,7 +41381,7 @@
       </c>
       <c r="G1604" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
